--- a/chapter1_ZA-content/results/xml_evaluation.xlsx
+++ b/chapter1_ZA-content/results/xml_evaluation.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="185" documentId="11_AD4DB114E441178AC67DF401E653D962683EDF1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C357437-B38D-49A4-BF56-142BAF8F29B6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPT" sheetId="1" r:id="rId1"/>
@@ -399,6 +399,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
